--- a/biology/Zoologie/Apis_mellifera_mellifera/Apis_mellifera_mellifera.xlsx
+++ b/biology/Zoologie/Apis_mellifera_mellifera/Apis_mellifera_mellifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abeille noire ou Apis mellifera mellifica
 L'abeille noire (Apis mellifera mellifera ou  Apis mellifera mellifica) est une sous-espèce de l'abeille domestique européenne (Apis mellifera). Cette abeille est couramment utilisée en apiculture en Europe pour la production de miel.
@@ -512,15 +524,52 @@
           <t>Races</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe trois races (alias variétés) appartenant toutes à la lignée 'M' d'Apis mellifera, à savoir :
-mellifera mellifera mellifera (abeille noire)[1]
+mellifera mellifera mellifera (abeille noire)
 mellifera mellifera lehzeni (abeille des landes)
 mellifera mellifera nigra (abeille noire),
 qui ont des sous-variétés locales, comme la « brune de Poméranie », ou la « noire de Scandinavie ».
-Écotypes français
-De par sa large aire de répartition, l'abeille noire présente des écotypes très variables en fonction du climat et de la flore locale :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Apis_mellifera_mellifera</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apis_mellifera_mellifera</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Races</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Écotypes français</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De par sa large aire de répartition, l'abeille noire présente des écotypes très variables en fonction du climat et de la flore locale :
 Auvergne ;
 Bretagne ;
 Cévennes ;
@@ -538,37 +587,6 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Apis_mellifera_mellifera</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Apis_mellifera_mellifera</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son aire de répartition naturelle s'étend depuis l'Oural à l'est, la Scandinavie au Nord jusqu'à  la péninsule ibérique au sud[2]. Elle a été domestiquée et des ruches ont été apportées en Amérique du Nord avec les premiers colons.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
@@ -590,13 +608,14 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elles sont grandes pour des abeilles à miel, bien qu'elles aient des langues exceptionnellement courtes. On les appelle parfois abeilles noires allemandes.
-L'abeille noire se distingue des autres sous-espèces par son aspect trapu, ses poils bruns abondants sur le thorax et plus rares sur l'abdomen, et sa coloration généralement foncée[1]. La nigra a aussi une pigmentation très foncée des ailes. Dans l'ensemble, lorsqu'elles sont vues de loin, elles paraissent noirâtres pour la nigra et brun foncé pour la mellifera. Les hybrides sauvages, avec d'autres sous-espèces, peuvent être distingués par un baguage plus léger et jaunâtre sur les côtés de l'abdomen, mais cela est souvent difficile. Pour la reproduction pure des abeilles noires selon la norme, les détails des veines d'aile sont aujourd'hui considérés comme le seul caractère distinctif fiable.
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son aire de répartition naturelle s'étend depuis l'Oural à l'est, la Scandinavie au Nord jusqu'à  la péninsule ibérique au sud. Elle a été domestiquée et des ruches ont été apportées en Amérique du Nord avec les premiers colons.
 </t>
         </is>
       </c>
@@ -622,12 +641,15 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Caractère</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les hybrides ont un caractère défensif et ont la réputation de piquer des gens (et d'autres créatures) sans raison apparente. Certaines colonies sont très « actives » sur le rayon et si excitables que les apiculteurs les considèrent difficiles à travailler. Cette caractéristique n'est cependant pas traditionnellement associée aux races d'abeilles noires, connues auparavant pour leur maniement assez facile, bien qu'elles n'aient jamais été considérées aussi placides que l'abeille carniolienne (Apis mellifera carnica).
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elles sont grandes pour des abeilles à miel, bien qu'elles aient des langues exceptionnellement courtes. On les appelle parfois abeilles noires allemandes.
+L'abeille noire se distingue des autres sous-espèces par son aspect trapu, ses poils bruns abondants sur le thorax et plus rares sur l'abdomen, et sa coloration généralement foncée. La nigra a aussi une pigmentation très foncée des ailes. Dans l'ensemble, lorsqu'elles sont vues de loin, elles paraissent noirâtres pour la nigra et brun foncé pour la mellifera. Les hybrides sauvages, avec d'autres sous-espèces, peuvent être distingués par un baguage plus léger et jaunâtre sur les côtés de l'abdomen, mais cela est souvent difficile. Pour la reproduction pure des abeilles noires selon la norme, les détails des veines d'aile sont aujourd'hui considérés comme le seul caractère distinctif fiable.
 </t>
         </is>
       </c>
@@ -653,17 +675,52 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Caractère</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hybrides ont un caractère défensif et ont la réputation de piquer des gens (et d'autres créatures) sans raison apparente. Certaines colonies sont très « actives » sur le rayon et si excitables que les apiculteurs les considèrent difficiles à travailler. Cette caractéristique n'est cependant pas traditionnellement associée aux races d'abeilles noires, connues auparavant pour leur maniement assez facile, bien qu'elles n'aient jamais été considérées aussi placides que l'abeille carniolienne (Apis mellifera carnica).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Apis_mellifera_mellifera</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Apis_mellifera_mellifera</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Forte rusticité hivernale, liée à leurs choix alimentaires, en opposition à celle de l'abeille africaine (Apis mellifera scutellata)
 Faible tendance à l'essaimage
 Souvent agressive, mais certaines lignées sont très douces
 Défensive contre les envahisseurs, tels que les guêpes
 Cycle de ponte prudent et mesuré. La reine réduit sa ponte si les ressources sont insuffisantes.
-Forte volonté de recueillir le pollen; entoure bien le couvain de provisions pour l’hivernage[3],[4], mais production de miel parfois faible.
+Forte volonté de recueillir le pollen; entoure bien le couvain de provisions pour l’hivernage mais production de miel parfois faible.
 Forte production de propolis
 Longévité élevée des abeilles ouvrières et de la reine
 Excellente tenue de vol, même par temps froid
@@ -674,31 +731,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Apis_mellifera_mellifera</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Apis_mellifera_mellifera</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Importance de l'espèce</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Apis mellifera mellifera n'est plus une sous-espèce commerciale importante de l'abeille à miel occidentale, mais il existe un certain nombre d'apiculteurs amateurs spécialisés qui gardent ces abeilles en Europe et dans d'autres parties du monde. Les immigrants ont amené ces sous-espèces dans les Amériques. Avant leur arrivée, le continent américain n'avait pas d'abeilles domestiques. Les descendants hybrides des abeilles noires coloniales d'origine ont survécu en Amérique du Nord. Les apiculteurs rapportent qu'après l'arrivée de l'acarien Varroa sur le continent américain en 1987, certaines colonies d'abeilles sauvages ont survécu. La forme originale n'est plus présente en Amérique du Nord.
 En Europe de l'Ouest, les abeilles noires étaient le stock original d'abeilles jusqu'à la création de l'abeille Buckfast. Il s'agit d'une race hybride dont la descendance comprend les restes récupérés de l'abeille noire britannique, presque éteinte à ce moment-là en raison d'Acarapis woodi. Les stocks de reproduction en Europe centrale ont été presque détruits par ordre des nazis, qui considéraient que le rendement du miel n'était pas conforme aux normes modernes et voulaient « améliorer » les stocks d'abeilles maintenus dans les zones sous leur contrôle.
